--- a/demo/template.xlsx
+++ b/demo/template.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivahaev/Documents/golang/src/candy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>Hello {{name}}</t>
+  </si>
+  <si>
+    <t>Here is a list of your items</t>
+  </si>
+  <si>
+    <t>可以</t>
   </si>
   <si>
     <t>{{nameHeader}}</t>
@@ -35,7 +31,7 @@
     <t>{{quantityHeader}}</t>
   </si>
   <si>
-    <t>Here is a list of your items</t>
+    <t>{{range groups}}</t>
   </si>
   <si>
     <t>{{items.name}}</t>
@@ -43,36 +39,192 @@
   <si>
     <t>{{items.quantity}}</t>
   </si>
+  <si>
+    <t>{{sum}}</t>
+  </si>
+  <si>
+    <t>{{end}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,12 +233,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -95,6 +433,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -108,50 +494,262 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,11 +757,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -216,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -251,7 +905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -425,67 +1079,88 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="23.0583333333333" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="17.95" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/demo/template.xlsx
+++ b/demo/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16800" tabRatio="500"/>
+    <workbookView windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>{{items.quantity}}</t>
   </si>
   <si>
-    <t>{{sum}}</t>
+    <t>{{total}}</t>
   </si>
   <si>
     <t>{{end}}</t>
@@ -51,16 +51,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -68,43 +68,35 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -112,30 +104,15 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -143,29 +120,53 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -173,53 +174,52 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -239,19 +239,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,163 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,15 +490,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +499,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +557,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,201 +591,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,55 +768,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1088,23 +1088,23 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.0583333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.0588235294118" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.6691176470588" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" ht="15.2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="4" ht="17.95" spans="1:5">
+    <row r="4" ht="20.35" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.95" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.2" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>

--- a/demo/template.xlsx
+++ b/demo/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16100" tabRatio="500"/>
+    <workbookView windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="2" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Hello {{name}}</t>
   </si>
   <si>
     <t>Here is a list of your items</t>
-  </si>
-  <si>
-    <t>可以</t>
   </si>
   <si>
     <t>{{nameHeader}}</t>
@@ -45,16 +42,25 @@
   <si>
     <t>{{end}}</t>
   </si>
+  <si>
+    <t>{{url}}</t>
+  </si>
+  <si>
+    <t>{{file}}</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -80,6 +86,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -87,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,6 +118,81 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,62 +207,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,51 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -245,31 +251,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,25 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,109 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,20 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +530,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -542,6 +554,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,190 +597,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -766,6 +772,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="4"/>
@@ -1114,21 +1122,19 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="15.95" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="15.2" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -1138,28 +1144,46 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="{{url}}"/>
+    <hyperlink ref="B10" r:id="rId2" display="{{file}}"/>
+    <hyperlink ref="A11" r:id="rId1" display="https://github.com/"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
